--- a/Kyiv_Sub-Districts.xlsx
+++ b/Kyiv_Sub-Districts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsapin/Desktop/projects/Coursera_Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C96AA920-E23E-4E43-89A0-72403BCDE871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8429F8F-0FAE-C240-AF40-1974AE5B5A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{0989A21A-7498-FF47-BFAA-A10147AE0390}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="203">
   <si>
     <t>Аварійне селище (Київ)</t>
   </si>
@@ -637,6 +638,12 @@
   </si>
   <si>
     <t>SUB-DISTRICT</t>
+  </si>
+  <si>
+    <t>Академмістечко</t>
+  </si>
+  <si>
+    <t>Venetsiansʹkyy Ostriv</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1004,7 @@
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,6 +1029,1029 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01849DE6-5A0C-5046-AECE-F01F8A638393}">
+  <dimension ref="A1:A201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Kyiv_Sub-Districts.xlsx
+++ b/Kyiv_Sub-Districts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsapin/Desktop/projects/Coursera_Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8429F8F-0FAE-C240-AF40-1974AE5B5A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8F07F-683C-E948-BB34-46CE9AAD41DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{0989A21A-7498-FF47-BFAA-A10147AE0390}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="202">
   <si>
     <t>Аварійне селище (Київ)</t>
   </si>
@@ -641,9 +641,6 @@
   </si>
   <si>
     <t>Академмістечко</t>
-  </si>
-  <si>
-    <t>Venetsiansʹkyy Ostriv</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1001,7 @@
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1156,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">

--- a/Kyiv_Sub-Districts.xlsx
+++ b/Kyiv_Sub-Districts.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsapin/Desktop/projects/Coursera_Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8F07F-683C-E948-BB34-46CE9AAD41DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3048637-E9D6-AF43-8A38-27411F4BD9B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{0989A21A-7498-FF47-BFAA-A10147AE0390}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="10700" windowHeight="16600" xr2:uid="{0989A21A-7498-FF47-BFAA-A10147AE0390}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ukr" sheetId="1" r:id="rId1"/>
+    <sheet name="eng" sheetId="3" r:id="rId2"/>
+    <sheet name="original" sheetId="2" r:id="rId3"/>
+    <sheet name="source" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="415">
   <si>
     <t>Аварійне селище (Київ)</t>
   </si>
@@ -641,16 +643,663 @@
   </si>
   <si>
     <t>Академмістечко</t>
+  </si>
+  <si>
+    <t>Akademmistechko</t>
+  </si>
+  <si>
+    <t>Babyn torzhok</t>
+  </si>
+  <si>
+    <t>Babyn Yar</t>
+  </si>
+  <si>
+    <t>Bahrynova hora</t>
+  </si>
+  <si>
+    <t>Bilyche pole</t>
+  </si>
+  <si>
+    <t>Bozhkiv yar</t>
+  </si>
+  <si>
+    <t>Bortnychi</t>
+  </si>
+  <si>
+    <t>Busova hora</t>
+  </si>
+  <si>
+    <t>Busove pole</t>
+  </si>
+  <si>
+    <t>Vydubychi</t>
+  </si>
+  <si>
+    <t>DVRZ</t>
+  </si>
+  <si>
+    <t>Dytynka</t>
+  </si>
+  <si>
+    <t>Dorohozhychi</t>
+  </si>
+  <si>
+    <t>Zhukiv ostriv</t>
+  </si>
+  <si>
+    <t>Zapadynka</t>
+  </si>
+  <si>
+    <t>Zolocha</t>
+  </si>
+  <si>
+    <t>Kazenni dachi</t>
+  </si>
+  <si>
+    <t>Klinichne mistechko</t>
+  </si>
+  <si>
+    <t>Klov</t>
+  </si>
+  <si>
+    <t>Kmytiv yar</t>
+  </si>
+  <si>
+    <t>Kozyne boloto</t>
+  </si>
+  <si>
+    <t>Koncha-Zaspa</t>
+  </si>
+  <si>
+    <t>Korchuvate</t>
+  </si>
+  <si>
+    <t>Kuchmyn yar</t>
+  </si>
+  <si>
+    <t>Myloslavychi</t>
+  </si>
+  <si>
+    <t>Navodnychi</t>
+  </si>
+  <si>
+    <t>Nova Zabudova</t>
+  </si>
+  <si>
+    <t>Novobilychi (masyv)</t>
+  </si>
+  <si>
+    <t>Osokorky</t>
+  </si>
+  <si>
+    <t>Ostriv Vodnykiv</t>
+  </si>
+  <si>
+    <t>Peredmostova slobidka</t>
+  </si>
+  <si>
+    <t>Peredslavyne</t>
+  </si>
+  <si>
+    <t>Podil</t>
+  </si>
+  <si>
+    <t>Priorka</t>
+  </si>
+  <si>
+    <t>Samburky</t>
+  </si>
+  <si>
+    <t>Saperna slobidka</t>
+  </si>
+  <si>
+    <t>Saperne pole</t>
+  </si>
+  <si>
+    <t>Selo Shevchenka</t>
+  </si>
+  <si>
+    <t>Telychka</t>
+  </si>
+  <si>
+    <t>Teremky</t>
+  </si>
+  <si>
+    <t>Aviamistechko (Kyiv)</t>
+  </si>
+  <si>
+    <t>Berestove (Kyiv)</t>
+  </si>
+  <si>
+    <t>Bessarabka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Bilychi (Kyiv)</t>
+  </si>
+  <si>
+    <t>Vynohradar (Kyiv)</t>
+  </si>
+  <si>
+    <t>Vita (Kyiv)</t>
+  </si>
+  <si>
+    <t>Voskresenka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Hidropark (Kyiv)</t>
+  </si>
+  <si>
+    <t>Hrushky (Kyiv)</t>
+  </si>
+  <si>
+    <t>Zhovtneve (Kyiv)</t>
+  </si>
+  <si>
+    <t>Zamkova hora (Kyiv)</t>
+  </si>
+  <si>
+    <t>Katerynivka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>Kulykove (Kyiv)</t>
+  </si>
+  <si>
+    <t>Kurenivka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Lypky (Kyiv)</t>
+  </si>
+  <si>
+    <t>Lysa hora (Kyiv)</t>
+  </si>
+  <si>
+    <t>Lisky (Kyiv)</t>
+  </si>
+  <si>
+    <t>Mysholovka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Montazhnyk (Kyiv)</t>
+  </si>
+  <si>
+    <t>Nyvky (Kyiv)</t>
+  </si>
+  <si>
+    <t>Peremoha (Kyiv)</t>
+  </si>
+  <si>
+    <t>Petrivka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Pyrohiv (Kyiv)</t>
+  </si>
+  <si>
+    <t>Rybne (Kyiv)</t>
+  </si>
+  <si>
+    <t>Rubezhivka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Rusanivka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Sadyba Merinha (Kyiv)</t>
+  </si>
+  <si>
+    <t>Sadove (Kyiv)</t>
+  </si>
+  <si>
+    <t>Sovky (Kyiv)</t>
+  </si>
+  <si>
+    <t>Tatarka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Bohuslavshchyna</t>
+  </si>
+  <si>
+    <t>Borshchahivka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Vyhurivshchyna</t>
+  </si>
+  <si>
+    <t>DVS (selyshche)</t>
+  </si>
+  <si>
+    <t>Zahorivshchyna</t>
+  </si>
+  <si>
+    <t>Zamkovyshche</t>
+  </si>
+  <si>
+    <t>Pivdenna Borshchahivka</t>
+  </si>
+  <si>
+    <t>Pronivshchyna</t>
+  </si>
+  <si>
+    <t>Selyshche Radystiv</t>
+  </si>
+  <si>
+    <t>Selyshche Shevchenka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Liubka (Kyiv)</t>
+  </si>
+  <si>
+    <t>https://uk.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D1%96%D1%8F:%D0%9C%D1%96%D1%81%D1%86%D0%B5%D0%B2%D0%BE%D1%81%D1%82%D1%96_%D0%9A%D0%B8%D1%94%D0%B2%D0%B0</t>
+  </si>
+  <si>
+    <t>Dniprovskyi</t>
+  </si>
+  <si>
+    <t>Sviatoshynskyi</t>
+  </si>
+  <si>
+    <t>Avariine selyshche (Kyiv)</t>
+  </si>
+  <si>
+    <t>Antyfiivka</t>
+  </si>
+  <si>
+    <t>Areshtantski horody</t>
+  </si>
+  <si>
+    <t>Askoldova Mohyla</t>
+  </si>
+  <si>
+    <t>Afanasivskyi yar</t>
+  </si>
+  <si>
+    <t>Baikova hora</t>
+  </si>
+  <si>
+    <t>Batyieva hora</t>
+  </si>
+  <si>
+    <t>Berezniaky (Kyiv)</t>
+  </si>
+  <si>
+    <t>Berkovets</t>
+  </si>
+  <si>
+    <t>Bykivnia</t>
+  </si>
+  <si>
+    <t>Bobrovnia (urochyshche, Kyiv)</t>
+  </si>
+  <si>
+    <t>Bratska Borshchahivka</t>
+  </si>
+  <si>
+    <t>Vasylchyky</t>
+  </si>
+  <si>
+    <t>Venetsiiskyi ostriv</t>
+  </si>
+  <si>
+    <t>Vyhurivshchyna-Troieshchyna</t>
+  </si>
+  <si>
+    <t>Vyshhorodskyi masyv</t>
+  </si>
+  <si>
+    <t>Vidradnyi</t>
+  </si>
+  <si>
+    <t>Vita-Lytovska</t>
+  </si>
+  <si>
+    <t>Vitriani hory</t>
+  </si>
+  <si>
+    <t>Vovchyi yar</t>
+  </si>
+  <si>
+    <t>Voleikiv</t>
+  </si>
+  <si>
+    <t>Volodymyrska hirka</t>
+  </si>
+  <si>
+    <t>Voskresenska slobidka</t>
+  </si>
+  <si>
+    <t>Voskresenski sady</t>
+  </si>
+  <si>
+    <t>Halernyi ostriv (Kyiv)</t>
+  </si>
+  <si>
+    <t>Hlybochytsia (Kyiv)</t>
+  </si>
+  <si>
+    <t>Holosiiv</t>
+  </si>
+  <si>
+    <t>Holosiivskyi lis</t>
+  </si>
+  <si>
+    <t>Honchari-Kozhumiaky</t>
+  </si>
+  <si>
+    <t>Galagany (mistsevist)</t>
+  </si>
+  <si>
+    <t>Darnytsia</t>
+  </si>
+  <si>
+    <t>Demiivka</t>
+  </si>
+  <si>
+    <t>Desenka (Chortoryi)</t>
+  </si>
+  <si>
+    <t>Dekhtiari</t>
+  </si>
+  <si>
+    <t>Dobryi Shliakh</t>
+  </si>
+  <si>
+    <t>Dolobetskyi ostriv</t>
+  </si>
+  <si>
+    <t>Yevreiskyi bazar (Kyiv)</t>
+  </si>
+  <si>
+    <t>Zhuliany</t>
+  </si>
+  <si>
+    <t>Zabaikivia</t>
+  </si>
+  <si>
+    <t>Zaliznychna koloniia</t>
+  </si>
+  <si>
+    <t>Zaliznychnyi masyv</t>
+  </si>
+  <si>
+    <t>Zaliznychnyi peretyn (Kyiv)</t>
+  </si>
+  <si>
+    <t>Zvirynets (Kyiv)</t>
+  </si>
+  <si>
+    <t>Kadetskyi hai</t>
+  </si>
+  <si>
+    <t>Karavaievi Dachi</t>
+  </si>
+  <si>
+    <t>Kvitnytstvo (masyv)</t>
+  </si>
+  <si>
+    <t>Kybalchych (Kyiv)</t>
+  </si>
+  <si>
+    <t>Kyivski hory</t>
+  </si>
+  <si>
+    <t>Kyn-Grust</t>
+  </si>
+  <si>
+    <t>Park «Kyn-Hrust»</t>
+  </si>
+  <si>
+    <t>Kytaiv</t>
+  </si>
+  <si>
+    <t>Kyianka (richka)</t>
+  </si>
+  <si>
+    <t>Ostriv Kozachyi</t>
+  </si>
+  <si>
+    <t>Konyk (mistsevist)</t>
+  </si>
+  <si>
+    <t>Konoplianka (urochyshche)</t>
+  </si>
+  <si>
+    <t>Kopyriv kinets</t>
+  </si>
+  <si>
+    <t>Krasnyi Traktyr</t>
+  </si>
+  <si>
+    <t>Kristerova hirka (mistsevist)</t>
+  </si>
+  <si>
+    <t>Kudriavets</t>
+  </si>
+  <si>
+    <t>Kukhmisterska slobidka</t>
+  </si>
+  <si>
+    <t>Livoberezhnyi masyv</t>
+  </si>
+  <si>
+    <t>Lisovyi masyv (Kyiv)</t>
+  </si>
+  <si>
+    <t>Lopukhovatyi (ostriv, Kyiv)</t>
+  </si>
+  <si>
+    <t>Lukianivka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Masyv Pecherskoi avtostrady</t>
+  </si>
+  <si>
+    <t>Mykilska Borshchahivka</t>
+  </si>
+  <si>
+    <t>Mykilska Borshchahivka (zhytlovyi masyv)</t>
+  </si>
+  <si>
+    <t>Mykilska Slobidka</t>
+  </si>
+  <si>
+    <t>Mykhailivska Borshchahivka</t>
+  </si>
+  <si>
+    <t>Mykhailivska hora</t>
+  </si>
+  <si>
+    <t>Mikroraion imeni Dzerzhynskoho</t>
+  </si>
+  <si>
+    <t>Minskyi masyv</t>
+  </si>
+  <si>
+    <t>Mostytskyi masyv</t>
+  </si>
+  <si>
+    <t>Muromets</t>
+  </si>
+  <si>
+    <t>Nyzhnia Telychka</t>
+  </si>
+  <si>
+    <t>Nova Darnytsia</t>
+  </si>
+  <si>
+    <t>Novokaravaievi Dachi</t>
+  </si>
+  <si>
+    <t>Obolon (mistsevist Kyieva)</t>
+  </si>
+  <si>
+    <t>Oleksandrivska slobidka</t>
+  </si>
+  <si>
+    <t>Olzhyn ostriv</t>
+  </si>
+  <si>
+    <t>Ostriv Mizhmostnyi (Kyiv)</t>
+  </si>
+  <si>
+    <t>Ostrovy Kozachyi ta Olzhyn</t>
+  </si>
+  <si>
+    <t>Pankivshchyna</t>
+  </si>
+  <si>
+    <t>Pershotravnevyi masyv</t>
+  </si>
+  <si>
+    <t>Pechersk</t>
+  </si>
+  <si>
+    <t>Pivnichno-Brovarskyi masyv</t>
+  </si>
+  <si>
+    <t>Ploske (mistsevist)</t>
+  </si>
+  <si>
+    <t>Pozniaky</t>
+  </si>
+  <si>
+    <t>Post-Volynskyi</t>
+  </si>
+  <si>
+    <t>Pochaina</t>
+  </si>
+  <si>
+    <t>Provallia (Kyiv)</t>
+  </si>
+  <si>
+    <t>Promizhnyi (ostriv, Kyiv)</t>
+  </si>
+  <si>
+    <t>Protasiv Yar (mistsevist)</t>
+  </si>
+  <si>
+    <t>Pushcha-Vodytsia</t>
+  </si>
+  <si>
+    <t>Raiduzhnyi masyv</t>
+  </si>
+  <si>
+    <t>Rembaza (mistsevist)</t>
+  </si>
+  <si>
+    <t>Repiakhiv yar</t>
+  </si>
+  <si>
+    <t>Rybalskyi ostriv</t>
+  </si>
+  <si>
+    <t>Rusanivski sady</t>
+  </si>
+  <si>
+    <t>Sviatoslavskyi yar</t>
+  </si>
+  <si>
+    <t>Sviatoshyn</t>
+  </si>
+  <si>
+    <t>Synoozernyi masyv</t>
+  </si>
+  <si>
+    <t>Syrets</t>
+  </si>
+  <si>
+    <t>Skarbovyi lis</t>
+  </si>
+  <si>
+    <t>Soldatska slobidka</t>
+  </si>
+  <si>
+    <t>Solomianka</t>
+  </si>
+  <si>
+    <t>Sofiivka (Kyiv)</t>
+  </si>
+  <si>
+    <t>Sotsmisto (Kyiv)</t>
+  </si>
+  <si>
+    <t>Stara Darnytsia</t>
+  </si>
+  <si>
+    <t>Staryi Kyiv</t>
+  </si>
+  <si>
+    <t>Starokyivska hora</t>
+  </si>
+  <si>
+    <t>Troieshchyna (Kyiv)</t>
+  </si>
+  <si>
+    <t>Trukhaniv ostriv</t>
+  </si>
+  <si>
+    <t>Turetske mistechko</t>
+  </si>
+  <si>
+    <t>Uhorske urochyshche</t>
+  </si>
+  <si>
+    <t>Feofaniia</t>
+  </si>
+  <si>
+    <t>Kharkivskyi masyv</t>
+  </si>
+  <si>
+    <t>Khresty (Kyiv)</t>
+  </si>
+  <si>
+    <t>http://ukrlit.org/transliteratsiia</t>
+  </si>
+  <si>
+    <t>Sub-districts:</t>
+  </si>
+  <si>
+    <t>Transliteration:</t>
+  </si>
+  <si>
+    <t>Онлайн транслітерація з української на англійську згідно з Постановою Кабінету Міністрів України від 27 січня 2010 р. N 55 «Про впорядкування транслітерації українського алфавіту латиницею» (чинна).</t>
+  </si>
+  <si>
+    <t>Podilskyi</t>
+  </si>
+  <si>
+    <t>Solomianskyi</t>
+  </si>
+  <si>
+    <t>Pecherskyi</t>
+  </si>
+  <si>
+    <t>Shevchenkivskyi</t>
+  </si>
+  <si>
+    <t>DISTRICT</t>
+  </si>
+  <si>
+    <t>SUB-DISTRICT_UKR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,10 +1322,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,8 +1334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -998,1020 +1650,1625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C7C68C-94B1-F042-B031-DC021319C0E8}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2020,94 +3277,1145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01849DE6-5A0C-5046-AECE-F01F8A638393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD071BE5-80F6-0B4C-8A41-55C3E1352DDC}">
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01849DE6-5A0C-5046-AECE-F01F8A638393}">
+  <dimension ref="A1:B201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -3040,4 +5348,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DBACE-1FFF-EA45-B7BC-74EF65737B3B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{D1F256A9-5DEE-F547-9424-98CB18604F6E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{98E7583A-9C13-C84E-B312-5ECE9D271BDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Kyiv_Sub-Districts.xlsx
+++ b/Kyiv_Sub-Districts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsapin/Desktop/projects/Coursera_Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3048637-E9D6-AF43-8A38-27411F4BD9B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7890B62-A5AE-0C41-9F2F-00608396BB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="10700" windowHeight="16600" xr2:uid="{0989A21A-7498-FF47-BFAA-A10147AE0390}"/>
   </bookViews>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
